--- a/attic/sat/algo/3-SAT/cube.xlsx
+++ b/attic/sat/algo/3-SAT/cube.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lab\sandbox\attic\sat\algo\3-SAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1AEC58-558B-4FEE-8A7A-3594B80E9D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09ECB48-A65C-4D59-A883-61075658DDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="36">
   <si>
     <t>x1</t>
   </si>
@@ -52,9 +52,6 @@
     <t>x8</t>
   </si>
   <si>
-    <t>A - adott kombináció megengedett (nincs negáltja)</t>
-  </si>
-  <si>
     <t>D - adott kombináció nem megengedett (van negáltja</t>
   </si>
   <si>
@@ -125,6 +122,18 @@
   </si>
   <si>
     <t>Ha a levezetés ellentmondásmentes, akkor az a sor használható</t>
+  </si>
+  <si>
+    <t>D - adott kombináció nem megengedett (van negáltja)</t>
+  </si>
+  <si>
+    <t>A - adott kombináció megengedett (nincs negáltja a többi Clause között)</t>
+  </si>
+  <si>
+    <t>Olyan Clause-okat választok, amik diszjunktak a változókra</t>
+  </si>
+  <si>
+    <t>Kell ez tényleg?</t>
   </si>
 </sst>
 </file>
@@ -199,23 +208,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -496,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="B12" sqref="B12:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -508,25 +518,25 @@
     <col min="2" max="10" width="3.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C1" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -539,7 +549,7 @@
       <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -552,9 +562,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -562,215 +572,224 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>21</v>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>14</v>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="9"/>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="8"/>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>21</v>
+      <c r="E8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="8"/>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="6" t="s">
-        <v>21</v>
+      <c r="E10" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>22</v>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -778,10 +797,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7C0C29-BF47-424B-BA2D-B3DE9C020D1A}">
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -792,19 +811,19 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="C1" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J1" s="7"/>
     </row>
@@ -835,8 +854,8 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
+      <c r="A3" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -844,322 +863,331 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O3" t="s">
         <v>2</v>
       </c>
       <c r="P3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q3" t="s">
         <v>4</v>
       </c>
       <c r="R3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S3" t="s">
         <v>6</v>
       </c>
       <c r="T3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="6" t="s">
-        <v>21</v>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>14</v>
+      <c r="A5" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="L5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M5" t="s">
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q5" t="s">
         <v>4</v>
       </c>
       <c r="R5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>21</v>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="6" t="s">
-        <v>21</v>
+      <c r="G6" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="L7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M7" t="s">
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O7" t="s">
         <v>2</v>
       </c>
       <c r="P7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S7" t="s">
         <v>6</v>
       </c>
       <c r="T7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>21</v>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="6" t="s">
-        <v>21</v>
+      <c r="I8" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
+      <c r="A9" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="L9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
+      <c r="L9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>21</v>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="M10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
+      <c r="M10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="6"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>19</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
